--- a/inschrijven/inschrijfformulier.xlsx
+++ b/inschrijven/inschrijfformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saskia.moens\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtrip\Documents\GitHub\SidhartaProject\inschrijven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA164BE-4554-4264-9DA6-1BF71B691640}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1AB6C9-C8DA-4658-AEAD-ABB5B6664E89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{633561A0-F7AD-40FA-A09A-999B82E7B30C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{633561A0-F7AD-40FA-A09A-999B82E7B30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>extra info waarvan Dansgroep Sidharta moet op de hoogte zijn:</t>
   </si>
   <si>
-    <t xml:space="preserve">en zal op jaarbasis €200 (*) storten op rekeningnummer BE40 1030 1789 6063 </t>
-  </si>
-  <si>
     <t xml:space="preserve">      indien de danser wil deelnemen aan de supplémentaire technieklessen is er een toestag van €50.</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>INSCHRIJVINGSFORMULIER DANSLESSEN - terug te sturen naar gieleninge@yahoo.com</t>
+  </si>
+  <si>
+    <t>en zal op jaarbasis €200 (*) storten op rekeningnummer BE40 1030 1789 6063</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,98 +430,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E38206-140B-4170-BFE2-F2FD52A25AAE}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection insertRows="0"/>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="1yPmYUqPkdmpkPRpKVzqjcYVXuflzaK/ub6k9nbuseQ3dsX7Jbwx1MkP6hinJA6XHoMjcVPkvFkUiM03Db5KBA==" saltValue="7C/WvAXoLfpZ77wsZ4QFFw==" spinCount="100000" sqref="A1:A1048576" name="Plage1"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/inschrijven/inschrijfformulier.xlsx
+++ b/inschrijven/inschrijfformulier.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtrip\Documents\GitHub\SidhartaProject\inschrijven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1AB6C9-C8DA-4658-AEAD-ABB5B6664E89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E21B3B3-E706-458F-9505-E08879BCBA38}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{633561A0-F7AD-40FA-A09A-999B82E7B30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -431,7 +436,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,9 +529,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0"/>
+  <sheetProtection insertRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="1yPmYUqPkdmpkPRpKVzqjcYVXuflzaK/ub6k9nbuseQ3dsX7Jbwx1MkP6hinJA6XHoMjcVPkvFkUiM03Db5KBA==" saltValue="7C/WvAXoLfpZ77wsZ4QFFw==" spinCount="100000" sqref="A1:A1048576" name="Plage1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="OFPP2WuVGPdTJQK9gUVQHXXpt9+CxAMbxhybsb/Xw5uo0kTUR9DXdwyZuHehgnQe7ArKwXAsTmn+5acSSCuniQ==" saltValue="Kq786vq7TT62nmQqL2751w==" spinCount="100000" sqref="B1:Z36" name="Plage2"/>
+    <protectedRange algorithmName="SHA-512" hashValue="l2yrddvYvmlBJ/qMyx9iljCjJHocnw/fyTJLvBCIehZ43oENZ4iGv4zg6Jon6DJci0zbYyU6E+WNmUML7K9QFA==" saltValue="skfZgdcRI+zH9hv6EQVBeg==" spinCount="100000" sqref="A1:A34" name="Plage1" securityDescriptor="O:WDG:WDD:(D;;CC;;;S-1-5-21-527193546-1362850329-3293293071-1001)"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inschrijven/inschrijfformulier.xlsx
+++ b/inschrijven/inschrijfformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtrip\Documents\GitHub\SidhartaProject\inschrijven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E21B3B3-E706-458F-9505-E08879BCBA38}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641CA27B-749F-4681-8CEE-6A1728E2B68B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{633561A0-F7AD-40FA-A09A-999B82E7B30C}"/>
   </bookViews>
@@ -116,9 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E38206-140B-4170-BFE2-F2FD52A25AAE}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -444,92 +447,947 @@
     <col min="1" max="1" width="89.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H1d4/pmr/ZT2K05pwm7C9XHnDvfTqO8fPV3eBBLEBSwSFWVpwp3ew0WnnL1qvLcMPIy1A2e/UMQkCxiSr+Fz6w==" saltValue="03kt4kVylRfmDUUb2QQDYw==" spinCount="100000" sheet="1" objects="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="OFPP2WuVGPdTJQK9gUVQHXXpt9+CxAMbxhybsb/Xw5uo0kTUR9DXdwyZuHehgnQe7ArKwXAsTmn+5acSSCuniQ==" saltValue="Kq786vq7TT62nmQqL2751w==" spinCount="100000" sqref="B1:Z36" name="Plage2"/>
     <protectedRange algorithmName="SHA-512" hashValue="l2yrddvYvmlBJ/qMyx9iljCjJHocnw/fyTJLvBCIehZ43oENZ4iGv4zg6Jon6DJci0zbYyU6E+WNmUML7K9QFA==" saltValue="skfZgdcRI+zH9hv6EQVBeg==" spinCount="100000" sqref="A1:A34" name="Plage1" securityDescriptor="O:WDG:WDD:(D;;CC;;;S-1-5-21-527193546-1362850329-3293293071-1001)"/>
